--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_150.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_150.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.36, 24.16)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.56, 25.4)]</t>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.260000', '0:00:17.160000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (69.24, 75.88)]</t>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(27.36, 34.92), (79.42, 86.02)]</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.4, 13.72)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:46.060000', '0:00:55.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:23.020000', '0:00:32.580000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74)]</t>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(44.2, 54.16)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(25.26, 36.1)]</t>
+          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[('0:01:41.440000', '0:01:52.400000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:28.860000', '0:01:37.740000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(96.2, 113.76)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(11.06, 17.28)]</t>
+          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:30.240000', '0:00:38.500000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:03.820000', '0:00:06.460000'), ('0:00:01.360000', '0:00:04.740000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3540229885057471</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3), (0.56, 4.26)]</t>
+          <t>[('0:00:28.640000', '0:01:07.100000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(36.4, 44.08)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[('0:00:00.220000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:14.520000', '0:00:29.100000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(13.08, 19.46)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(102.76, 118.78)]</t>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.5, 5.58)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.52, 28.3)]</t>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.34, 15.04)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.14, 22.68)]</t>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(87.2, 97.22), (41.38, 43.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
